--- a/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2022/ifoCAst_error_tables_last_rep_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_ifoCAST_evaluations_last_rep_since_2022/ifoCAst_error_tables_last_rep_latest_since_2022.xlsx
@@ -423,22 +423,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2428372540828858</v>
+        <v>0.2444105972001947</v>
       </c>
       <c r="C2">
-        <v>0.4899953378201996</v>
+        <v>0.4739145320991289</v>
       </c>
       <c r="D2">
-        <v>0.3765994280985707</v>
+        <v>0.3556655416862647</v>
       </c>
       <c r="E2">
-        <v>0.6136769737399072</v>
+        <v>0.5963770130431459</v>
       </c>
       <c r="F2">
-        <v>0.5865991994585336</v>
+        <v>0.5645288044211415</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
